--- a/biology/Botanique/Yunck/Yunck..xlsx
+++ b/biology/Botanique/Yunck/Yunck..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Truman George Yuncker est un botaniste américain, né le 20 mars 1891 et mort le 8 janvier 1964.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études au Manual High School d’Indianapolis et après son service durant la Première Guerre mondiale, il poursuit ses études à l’université de l'Illinois et obtient son Ph. D. en 1919. Il travaille ensuite à l’université DePauw où il dirige, à partir de 1921, le département de botanique et de bactériologie, fonction qu’il occupe jusqu’à son départ à la retraite en 1956.
 Durant sa carrière, Yuncker décrit 839 nouvelles espèces, 211 nouvelles variétés et 25 nouvelles formes de Piperaceae. Il participe à de nombreuses conférences et expositions florales locales où il traite de cette famille. À la fin de sa vie, il étudie le genre Cuscuta et décrit 67 nouvelles espèces et 39 nouvelles variétés.
